--- a/data/quiz170522v2.xlsx
+++ b/data/quiz170522v2.xlsx
@@ -2167,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H127" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="O152" sqref="O152"/>
     </sheetView>
   </sheetViews>

--- a/data/quiz170522v2.xlsx
+++ b/data/quiz170522v2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17500" yWindow="1420" windowWidth="29140" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1857,12 +1857,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1884,6 +1878,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2167,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="O152" sqref="O152"/>
     </sheetView>
   </sheetViews>
@@ -2189,23 +2189,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2250,7 +2250,7 @@
       <c r="N2" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="9" t="s">
         <v>549</v>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       <c r="N3" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="O3" s="12" t="str">
+      <c r="O3" s="10" t="str">
         <f>TEXT(J3,"yyyy년mm월dd일")</f>
         <v>2017년12월20일</v>
       </c>
@@ -3058,46 +3058,46 @@
         <v>2017년03월11일</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+    <row r="22" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="11">
         <v>20175304</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="11">
         <v>1</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15" t="s">
+      <c r="H22" s="12"/>
+      <c r="I22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="14">
         <v>43024</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="L22" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="M22" s="17" t="s">
+      <c r="L22" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="M22" s="15" t="s">
         <v>526</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="O22" s="18" t="str">
+      <c r="O22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>2017년10월16일</v>
       </c>
@@ -4580,46 +4580,46 @@
         <v>2017년09월05일</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
+    <row r="57" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
         <v>55</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="13" t="s">
+      <c r="B57" s="12"/>
+      <c r="C57" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="11">
         <v>20175312</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="11">
         <v>1</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="15" t="s">
+      <c r="H57" s="12"/>
+      <c r="I57" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="14">
         <v>43066</v>
       </c>
-      <c r="K57" s="17" t="s">
+      <c r="K57" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="L57" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="M57" s="17" t="s">
+      <c r="L57" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="M57" s="15" t="s">
         <v>526</v>
       </c>
       <c r="N57" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="O57" s="18" t="str">
+      <c r="O57" s="16" t="str">
         <f t="shared" si="0"/>
         <v>2017년11월27일</v>
       </c>
@@ -7062,46 +7062,46 @@
         <v>2017년11월05일</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="13">
+    <row r="114" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11">
         <v>112</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="13" t="s">
+      <c r="B114" s="12"/>
+      <c r="C114" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="13">
+      <c r="D114" s="11">
         <v>20135339</v>
       </c>
-      <c r="E114" s="13" t="s">
+      <c r="E114" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="F114" s="13">
+      <c r="F114" s="11">
         <v>3</v>
       </c>
-      <c r="G114" s="13" t="s">
+      <c r="G114" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="H114" s="14"/>
-      <c r="I114" s="15" t="s">
+      <c r="H114" s="12"/>
+      <c r="I114" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="J114" s="16">
+      <c r="J114" s="14">
         <v>42767</v>
       </c>
-      <c r="K114" s="17" t="s">
+      <c r="K114" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="L114" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="M114" s="17" t="s">
+      <c r="L114" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="M114" s="15" t="s">
         <v>526</v>
       </c>
       <c r="N114" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="O114" s="18" t="str">
+      <c r="O114" s="16" t="str">
         <f t="shared" si="1"/>
         <v>2017년02월01일</v>
       </c>
@@ -7534,46 +7534,46 @@
         <v>2017년01월20일</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="13">
+    <row r="125" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
         <v>123</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="13" t="s">
+      <c r="B125" s="12"/>
+      <c r="C125" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D125" s="13">
+      <c r="D125" s="11">
         <v>20135342</v>
       </c>
-      <c r="E125" s="13" t="s">
+      <c r="E125" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="F125" s="13">
+      <c r="F125" s="11">
         <v>3</v>
       </c>
-      <c r="G125" s="13" t="s">
+      <c r="G125" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="H125" s="14"/>
-      <c r="I125" s="15" t="s">
+      <c r="H125" s="12"/>
+      <c r="I125" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="J125" s="16">
+      <c r="J125" s="14">
         <v>43048</v>
       </c>
-      <c r="K125" s="17" t="s">
+      <c r="K125" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="L125" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="M125" s="17" t="s">
+      <c r="L125" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="M125" s="15" t="s">
         <v>525</v>
       </c>
       <c r="N125" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="O125" s="18" t="str">
+      <c r="O125" s="16" t="str">
         <f t="shared" si="1"/>
         <v>2017년11월09일</v>
       </c>
@@ -7622,46 +7622,46 @@
         <v>2017년08월02일</v>
       </c>
     </row>
-    <row r="127" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="13">
+    <row r="127" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
         <v>125</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="13" t="s">
+      <c r="B127" s="12"/>
+      <c r="C127" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D127" s="13">
+      <c r="D127" s="11">
         <v>20135343</v>
       </c>
-      <c r="E127" s="13" t="s">
+      <c r="E127" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="F127" s="13">
+      <c r="F127" s="11">
         <v>3</v>
       </c>
-      <c r="G127" s="13" t="s">
+      <c r="G127" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="H127" s="14"/>
-      <c r="I127" s="15" t="s">
+      <c r="H127" s="12"/>
+      <c r="I127" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="J127" s="16">
+      <c r="J127" s="14">
         <v>42972</v>
       </c>
-      <c r="K127" s="17" t="s">
+      <c r="K127" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="L127" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="M127" s="17" t="s">
+      <c r="L127" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="M127" s="15" t="s">
         <v>525</v>
       </c>
       <c r="N127" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="O127" s="18" t="str">
+      <c r="O127" s="16" t="str">
         <f t="shared" si="1"/>
         <v>2017년08월25일</v>
       </c>
@@ -7930,46 +7930,46 @@
         <v>2017년03월15일</v>
       </c>
     </row>
-    <row r="134" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="13">
+    <row r="134" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11">
         <v>132</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="13" t="s">
+      <c r="B134" s="12"/>
+      <c r="C134" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D134" s="13">
+      <c r="D134" s="11">
         <v>20135347</v>
       </c>
-      <c r="E134" s="13" t="s">
+      <c r="E134" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="F134" s="13">
+      <c r="F134" s="11">
         <v>3</v>
       </c>
-      <c r="G134" s="13" t="s">
+      <c r="G134" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="H134" s="14"/>
-      <c r="I134" s="15" t="s">
+      <c r="H134" s="12"/>
+      <c r="I134" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="J134" s="16">
+      <c r="J134" s="14">
         <v>42862</v>
       </c>
-      <c r="K134" s="17" t="s">
+      <c r="K134" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="L134" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="M134" s="17" t="s">
+      <c r="L134" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="M134" s="15" t="s">
         <v>525</v>
       </c>
       <c r="N134" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="O134" s="18" t="str">
+      <c r="O134" s="16" t="str">
         <f t="shared" si="2"/>
         <v>2017년05월07일</v>
       </c>
@@ -8402,46 +8402,46 @@
         <v>2017년03월20일</v>
       </c>
     </row>
-    <row r="145" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="13">
+    <row r="145" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="11">
         <v>143</v>
       </c>
-      <c r="B145" s="14"/>
-      <c r="C145" s="13" t="s">
+      <c r="B145" s="12"/>
+      <c r="C145" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D145" s="13">
+      <c r="D145" s="11">
         <v>20135350</v>
       </c>
-      <c r="E145" s="13" t="s">
+      <c r="E145" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="F145" s="13">
+      <c r="F145" s="11">
         <v>3</v>
       </c>
-      <c r="G145" s="13" t="s">
+      <c r="G145" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="H145" s="14"/>
-      <c r="I145" s="15" t="s">
+      <c r="H145" s="12"/>
+      <c r="I145" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="J145" s="16">
+      <c r="J145" s="14">
         <v>42765</v>
       </c>
-      <c r="K145" s="17" t="s">
+      <c r="K145" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="L145" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="M145" s="17" t="s">
+      <c r="L145" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="M145" s="15" t="s">
         <v>525</v>
       </c>
       <c r="N145" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="O145" s="18" t="str">
+      <c r="O145" s="16" t="str">
         <f t="shared" si="2"/>
         <v>2017년01월30일</v>
       </c>
